--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Bullers Albatross_The Snares.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Bullers Albatross_The Snares.xlsx
@@ -2964,13 +2964,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{540325FA-9A7E-43BE-AB5C-7B081D4E3CCB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{783BE72F-7712-4FD5-9AC6-4BD281E62DBE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92EF47BB-198F-47DF-A08D-40D1056B7964}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C27883-9E69-461B-86F6-595C577501A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{881043E2-9298-438C-A8F2-7A2E8F0F8673}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5224D52D-28B5-4E25-9E00-EEC73E9D3A3E}"/>
 </file>